--- a/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
+++ b/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7101AB53-8A4D-4D22-B514-E7755FF99754}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1AC6FF1-90D7-4A1D-A904-87F4A44C1EE2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
+++ b/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1AC6FF1-90D7-4A1D-A904-87F4A44C1EE2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3E569F-4E77-4637-8EC8-E4AAC24F3B7E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
+++ b/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3E569F-4E77-4637-8EC8-E4AAC24F3B7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47DA15AD-E1BF-445B-B6DC-C58AEB2A457F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
+++ b/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47DA15AD-E1BF-445B-B6DC-C58AEB2A457F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E496F5-147A-4BF9-A18A-351010083326}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
+++ b/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E496F5-147A-4BF9-A18A-351010083326}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E861F99C-BEAC-462D-9CC1-C2B0B92B1C9F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
+++ b/Start Tool/Start Tool/bin/Debug/Start Tool.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E861F99C-BEAC-462D-9CC1-C2B0B92B1C9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA47547-7BF2-4D6C-A8F7-5F4E20925D9D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>